--- a/Rail/pcb1_12V_XL_CPL1.xlsx
+++ b/Rail/pcb1_12V_XL_CPL1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ms\ISOBUS_Hardware\Rail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9945ABFE-1269-4457-9E45-BE67E8E2E1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C9D33E-7FE8-4048-AFB5-D345038F32DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1124,7 +1124,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>59.69</v>
+        <v>59.59</v>
       </c>
       <c r="C24" s="3">
         <v>85.73</v>
@@ -1141,7 +1141,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>57.15</v>
+        <v>57.25</v>
       </c>
       <c r="C25" s="3">
         <v>85.73</v>
@@ -1192,7 +1192,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="3">
-        <v>26.67</v>
+        <v>26.77</v>
       </c>
       <c r="C28" s="3">
         <v>85.73</v>
@@ -1226,7 +1226,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="3">
-        <v>29.21</v>
+        <v>29.11</v>
       </c>
       <c r="C30" s="3">
         <v>85.73</v>
@@ -1260,7 +1260,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>36.83</v>
+        <v>36.93</v>
       </c>
       <c r="C32" s="3">
         <v>85.73</v>
@@ -1294,7 +1294,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="3">
-        <v>39.369999999999997</v>
+        <v>39.270000000000003</v>
       </c>
       <c r="C34" s="3">
         <v>85.73</v>
@@ -1328,7 +1328,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="3">
-        <v>46.99</v>
+        <v>47.09</v>
       </c>
       <c r="C36" s="3">
         <v>85.73</v>
@@ -1362,7 +1362,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="3">
-        <v>49.53</v>
+        <v>49.43</v>
       </c>
       <c r="C38" s="3">
         <v>85.73</v>
@@ -1923,7 +1923,7 @@
         <v>73</v>
       </c>
       <c r="B71" s="3">
-        <v>24.13</v>
+        <v>23.9</v>
       </c>
       <c r="C71" s="3">
         <v>85.73</v>
@@ -1974,7 +1974,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="3">
-        <v>31.75</v>
+        <v>31.98</v>
       </c>
       <c r="C74" s="3">
         <v>85.73</v>
@@ -2025,7 +2025,7 @@
         <v>79</v>
       </c>
       <c r="B77" s="3">
-        <v>62.23</v>
+        <v>62.46</v>
       </c>
       <c r="C77" s="3">
         <v>85.73</v>
@@ -2042,7 +2042,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="3">
-        <v>54.61</v>
+        <v>54.38</v>
       </c>
       <c r="C78" s="3">
         <v>85.73</v>
@@ -2127,7 +2127,7 @@
         <v>85</v>
       </c>
       <c r="B83" s="3">
-        <v>34.29</v>
+        <v>34.06</v>
       </c>
       <c r="C83" s="3">
         <v>85.73</v>
@@ -2178,7 +2178,7 @@
         <v>88</v>
       </c>
       <c r="B86" s="3">
-        <v>41.91</v>
+        <v>42.14</v>
       </c>
       <c r="C86" s="3">
         <v>85.73</v>
@@ -2229,7 +2229,7 @@
         <v>91</v>
       </c>
       <c r="B89" s="3">
-        <v>44.45</v>
+        <v>44.22</v>
       </c>
       <c r="C89" s="3">
         <v>85.73</v>
@@ -2280,7 +2280,7 @@
         <v>94</v>
       </c>
       <c r="B92" s="3">
-        <v>52.07</v>
+        <v>52.3</v>
       </c>
       <c r="C92" s="3">
         <v>85.73</v>
